--- a/dados/previsoes/previsao_rodada-29.xlsx
+++ b/dados/previsoes/previsao_rodada-29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -494,6 +494,96 @@
           <t>vitoria_fora</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>lambda_x</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>lambda_y</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>0x</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1x</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2x</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>3x</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>4x</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>5x</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>6x</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>7x</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>0y</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1y</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2y</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>3y</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>4y</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>5y</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>6y</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>7y</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -527,13 +617,67 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>0.4847291862010714</v>
+        <v>0.2400765887282651</v>
       </c>
       <c r="L2" t="n">
-        <v>0.5096879072810337</v>
+        <v>0.374912409905904</v>
       </c>
       <c r="M2" t="n">
-        <v>0.00558233711253855</v>
+        <v>0.3850027844238414</v>
+      </c>
+      <c r="N2" t="n">
+        <v>0.698940590947188</v>
+      </c>
+      <c r="O2" t="n">
+        <v>0.9564226179523952</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0.4971116695268217</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0.34745152406582</v>
+      </c>
+      <c r="R2" t="n">
+        <v>0.1214239867780327</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.02828938435793389</v>
+      </c>
+      <c r="T2" t="n">
+        <v>0.004943149755166612</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.0006909936022033205</v>
+      </c>
+      <c r="V2" t="n">
+        <v>8.049391277745242e-05</v>
+      </c>
+      <c r="W2" t="n">
+        <v>8.037208994903431e-06</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.3842650931027069</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>0.3675198263330118</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>0.1757521372254144</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>0.05603110639861984</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>0.0133973543671343</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0.002562706547490108</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>0.0004085050841990387</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5.581478601092976e-05</v>
       </c>
     </row>
     <row r="3">
@@ -568,13 +712,67 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>0.6961909148335494</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>0.1694009691373789</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>0.1259248739207836</v>
+      </c>
+      <c r="N3" t="n">
+        <v>2.819283368623172</v>
+      </c>
+      <c r="O3" t="n">
+        <v>1.187055703152375</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.05964867350701659</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0.1681665131787655</v>
+      </c>
+      <c r="R3" t="n">
+        <v>0.2370545268821214</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0.2227746283651999</v>
+      </c>
+      <c r="T3" t="n">
+        <v>0.157016201175304</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.08853463291558492</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0.04160070302101104</v>
+      </c>
+      <c r="W3" t="n">
+        <v>0.01675488145002403</v>
+      </c>
+      <c r="X3" t="n">
+        <v>0.305118301699988</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>0.3621924201691377</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>0.214971289000168</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>0.08506096487388892</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>0.02524302586729841</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0.005992975564119899</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>0.001185665970373557</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>0.0002010645074522322</v>
       </c>
     </row>
     <row r="4">
@@ -609,13 +807,67 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>3.584901985888935e-07</v>
+        <v>0.4280383582997195</v>
       </c>
       <c r="L4" t="n">
-        <v>5.768789160083448e-14</v>
+        <v>0.365245393002189</v>
       </c>
       <c r="M4" t="n">
-        <v>-1.329670986232774e-17</v>
+        <v>0.2067025027198146</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1.037869438064713</v>
+      </c>
+      <c r="O4" t="n">
+        <v>0.6405874754173937</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.3542085418374255</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0.3676222202745302</v>
+      </c>
+      <c r="R4" t="n">
+        <v>0.1907719335882144</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.0659987865039063</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.01712453086544054</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0.003554605445287324</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0.0006148693926736871</v>
+      </c>
+      <c r="W4" t="n">
+        <v>9.116487872249013e-05</v>
+      </c>
+      <c r="X4" t="n">
+        <v>0.5269827436798522</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>0.3375785453624081</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>0.1081242940643906</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>0.02308768952199861</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>0.003697421186029424</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0.0004737043406226753</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>5.057484460895672e-05</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>4.628230289668362e-06</v>
       </c>
     </row>
     <row r="5">
@@ -650,13 +902,67 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>0.8316089984897749</v>
+        <v>0.6103779743923972</v>
       </c>
       <c r="L5" t="n">
-        <v>0.1664002550515447</v>
+        <v>0.2572030085163679</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001414202780799561</v>
+        <v>0.1319563307551213</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1.74638798591485</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.7019815160399897</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.1744027523314339</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0.3045748713820993</v>
+      </c>
+      <c r="R5" t="n">
+        <v>0.2659529480966294</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.1548190111248632</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.06759351525491962</v>
+      </c>
+      <c r="U5" t="n">
+        <v>0.02360890059338876</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0.006871716726158684</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.001714383361881949</v>
+      </c>
+      <c r="X5" t="n">
+        <v>0.49560228630083</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.3479036442903417</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.1221109638273857</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.02857321317088418</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.005014466874957771</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.0007040126118030334</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>8.236730675746096e-05</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>8.260046695676194e-06</v>
       </c>
     </row>
     <row r="6">
@@ -691,13 +997,67 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>0.399591380104631</v>
+        <v>0.1960568262194936</v>
       </c>
       <c r="L6" t="n">
-        <v>0.02237340253825221</v>
+        <v>0.501282742758785</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01762320955742427</v>
+        <v>0.3026602986078508</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.3916800232939863</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0.5471671884250301</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.6759203581319548</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0.2647445016180037</v>
+      </c>
+      <c r="R6" t="n">
+        <v>0.05184756628034725</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.006769218656140969</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.0006628419302298454</v>
+      </c>
+      <c r="U6" t="n">
+        <v>5.192438853453134e-05</v>
+      </c>
+      <c r="V6" t="n">
+        <v>3.389624285121868e-06</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1.89664016993485e-07</v>
+      </c>
+      <c r="X6" t="n">
+        <v>0.5785865176286045</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>0.3165835581114726</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>0.08661206769672329</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>0.01579709385509815</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>0.002160912857495093</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0.0002364761225334175</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>2.156532918271048e-05</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.685691505194851e-06</v>
       </c>
     </row>
     <row r="7">
@@ -732,13 +1092,67 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>0.5979179738744109</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>0.2895965425020177</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.1123388691862295</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.467719143944978</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0.5027906855043911</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0.2304505106479552</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0.3382366262098998</v>
+      </c>
+      <c r="R7" t="n">
+        <v>0.2482181857358158</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0.1214381943599157</v>
+      </c>
+      <c r="T7" t="n">
+        <v>0.0445592906670398</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0.01308010479052462</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0.003199653367643234</v>
+      </c>
+      <c r="W7" t="n">
+        <v>0.0006708846430968557</v>
+      </c>
+      <c r="X7" t="n">
+        <v>0.6048403830049368</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>0.3041081107917907</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>0.07645136274622487</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.01281301102763976</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.001610565649490578</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.0001619554813914389</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>1.357161791833251e-05</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>9.748118680802992e-07</v>
       </c>
     </row>
     <row r="8">
@@ -773,13 +1187,67 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.1129641837850107</v>
+        <v>0.431689697377885</v>
       </c>
       <c r="L8" t="n">
-        <v>0.8792799679140736</v>
+        <v>0.3892888865804431</v>
       </c>
       <c r="M8" t="n">
-        <v>0.007755848299886647</v>
+        <v>0.1790145137120825</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0.9447054528358061</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0.5138334659695983</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0.388794072229335</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0.3672958800652911</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0.1734932103509034</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0.0546333272828293</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0.01290310054766301</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0.002437925889173185</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0.0003838536468519147</v>
+      </c>
+      <c r="W8" t="n">
+        <v>5.180409046741623e-05</v>
+      </c>
+      <c r="X8" t="n">
+        <v>0.5981980060930676</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>0.3073741548069038</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>0.07896956365695361</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>0.0135257348666531</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>0.001737493806579553</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0.0001785564929470963</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1.529138360706377e-05</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>1.122460662612611e-06</v>
       </c>
     </row>
     <row r="9">
@@ -814,13 +1282,67 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>3.52818619918719e-25</v>
+        <v>0.4565152472016796</v>
       </c>
       <c r="L9" t="n">
-        <v>8.904651983278271e-35</v>
+        <v>0.3273456876419725</v>
       </c>
       <c r="M9" t="n">
-        <v>-7.629695086617898e-40</v>
+        <v>0.216088130975757</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1.250418977550775</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0.7832065166219107</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0.2863847829254442</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0.3581009674517345</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0.2238881227904706</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0.09331798586180753</v>
+      </c>
+      <c r="T9" t="n">
+        <v>0.02917164511710476</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0.00729535573216084</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0.00152037520924629</v>
+      </c>
+      <c r="W9" t="n">
+        <v>0.000271586573519899</v>
+      </c>
+      <c r="X9" t="n">
+        <v>0.4569384789013125</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>0.3578771943708113</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.1401458753907928</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.03658772096125039</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>0.007163935371298849</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0.001122168173491893</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.0001464815710374261</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>1.638933157164677e-05</v>
       </c>
     </row>
     <row r="10">
@@ -855,13 +1377,67 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>1.89371078866234e-07</v>
+        <v>0.3320581552465816</v>
       </c>
       <c r="L10" t="n">
-        <v>0.9386256209324726</v>
+        <v>0.2727749431520659</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0613741896964425</v>
+        <v>0.3948324541040947</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1.416357520060715</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1.558903807282138</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0.242596060793005</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0.3436027550412789</v>
+      </c>
+      <c r="R10" t="n">
+        <v>0.2433321730081474</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0.1148817843709348</v>
+      </c>
+      <c r="T10" t="n">
+        <v>0.04067841980294175</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0.01152303715841665</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0.002720123388877079</v>
+      </c>
+      <c r="W10" t="n">
+        <v>0.0005503810310470121</v>
+      </c>
+      <c r="X10" t="n">
+        <v>0.2103665471317148</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>0.3279412112484273</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>0.2556144013899446</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>0.1328260878409764</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>0.05176577351042241</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0.01613957228246047</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>0.004193340113172146</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>0.0009338591239504239</v>
       </c>
     </row>
     <row r="11">
@@ -896,13 +1472,67 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>0.008267657212567859</v>
+        <v>0.3543215979197689</v>
       </c>
       <c r="L11" t="n">
-        <v>0.9914009632914139</v>
+        <v>0.2576373096574152</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0003313794960183346</v>
+        <v>0.387433978145089</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1.595892621142723</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1.674402398896309</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0.2027274888718855</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0.3235313035934356</v>
+      </c>
+      <c r="R11" t="n">
+        <v>0.258160610056725</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0.1373322042197437</v>
+      </c>
+      <c r="T11" t="n">
+        <v>0.05479186283988863</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0.01748838592096849</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0.004651597674494979</v>
+      </c>
+      <c r="W11" t="n">
+        <v>0.001060492915035884</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.1874201485098208</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>0.3138167462663465</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>0.2627277563811025</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>0.146637328513721</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>0.06138247365778014</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0.02055579222855532</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.005736444636451187</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>0.001372159522915677</v>
       </c>
     </row>
   </sheetData>
